--- a/xlsx/加利福尼亚州议会_intext.xlsx
+++ b/xlsx/加利福尼亚州议会_intext.xlsx
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6</t>
   </si>
   <si>
-    <t>沙加緬度</t>
+    <t>沙加缅度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>加利福尼亞州議會大廈</t>
+    <t>加利福尼亚州议会大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
